--- a/results_colab/runtimes_ordinary_TPE.xlsx
+++ b/results_colab/runtimes_ordinary_TPE.xlsx
@@ -462,16 +462,16 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>332.1730055809021</v>
+        <v>287.2325069904327</v>
       </c>
       <c r="B2" t="n">
-        <v>104.9252035617828</v>
+        <v>376.6272072792053</v>
       </c>
       <c r="C2" t="n">
-        <v>66.18197154998779</v>
+        <v>54.32679343223572</v>
       </c>
       <c r="D2" t="n">
-        <v>102.1558089256287</v>
+        <v>114.1173338890076</v>
       </c>
       <c r="E2" t="inlineStr">
         <is>
@@ -481,16 +481,16 @@
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>746.5758883953094</v>
+        <v>798.7408525943756</v>
       </c>
       <c r="B3" t="n">
-        <v>161.4613769054413</v>
+        <v>952.598132610321</v>
       </c>
       <c r="C3" t="n">
-        <v>91.90248966217041</v>
+        <v>71.91868281364441</v>
       </c>
       <c r="D3" t="n">
-        <v>112.6964864730835</v>
+        <v>116.7516672611237</v>
       </c>
       <c r="E3" t="inlineStr">
         <is>
@@ -500,16 +500,16 @@
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>247.1802513599396</v>
+        <v>205.6780183315277</v>
       </c>
       <c r="B4" t="n">
-        <v>85.83214354515076</v>
+        <v>360.6242415904999</v>
       </c>
       <c r="C4" t="n">
-        <v>66.35461783409119</v>
+        <v>56.88042807579041</v>
       </c>
       <c r="D4" t="n">
-        <v>95.81665253639221</v>
+        <v>102.6660044193268</v>
       </c>
       <c r="E4" t="inlineStr">
         <is>
@@ -519,16 +519,16 @@
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>397.3066079616547</v>
+        <v>477.3747253417969</v>
       </c>
       <c r="B5" t="n">
-        <v>72.69354128837585</v>
+        <v>284.0919981002808</v>
       </c>
       <c r="C5" t="n">
-        <v>52.95531368255615</v>
+        <v>40.16576623916626</v>
       </c>
       <c r="D5" t="n">
-        <v>94.30200529098511</v>
+        <v>107.3109092712402</v>
       </c>
       <c r="E5" t="inlineStr">
         <is>
